--- a/rezultate_facturi.xlsx
+++ b/rezultate_facturi.xlsx
@@ -779,10 +779,10 @@
         <v>20490</v>
       </c>
       <c r="U3" s="15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" s="15" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="W3" s="10" t="inlineStr">
         <is>
@@ -943,10 +943,10 @@
         <v>116719</v>
       </c>
       <c r="U5" s="15" t="n">
-        <v>63218</v>
+        <v>66319</v>
       </c>
       <c r="V5" s="15" t="n">
-        <v>132638</v>
+        <v>66319</v>
       </c>
       <c r="W5" s="10" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>2688</v>
       </c>
       <c r="V6" s="15" t="n">
-        <v>5376</v>
+        <v>2688</v>
       </c>
       <c r="W6" s="10" t="inlineStr">
         <is>
@@ -1191,21 +1191,17 @@
         <v>64354</v>
       </c>
       <c r="U8" s="15" t="n">
-        <v>2524</v>
+        <v>5055</v>
       </c>
       <c r="V8" s="15" t="n">
-        <v>5062</v>
+        <v>2531</v>
       </c>
       <c r="W8" s="10" t="inlineStr">
         <is>
           <t>2025_28909028_2517336843.pdf</t>
         </is>
       </c>
-      <c r="X8" s="16" t="inlineStr">
-        <is>
-          <t>⚠️ Diferență mare la reactiv C</t>
-        </is>
-      </c>
+      <c r="X8" s="10" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="inlineStr">
@@ -1278,7 +1274,7 @@
         <v>9495</v>
       </c>
       <c r="V9" s="15" t="n">
-        <v>18990</v>
+        <v>9495</v>
       </c>
       <c r="W9" s="10" t="inlineStr">
         <is>
@@ -1359,10 +1355,10 @@
         <v>39470</v>
       </c>
       <c r="U10" s="15" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="V10" s="15" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="W10" s="10" t="inlineStr">
         <is>
@@ -1443,7 +1439,7 @@
         <v>207366</v>
       </c>
       <c r="U11" s="15" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="V11" s="15" t="n">
         <v>0</v>
@@ -1523,7 +1519,7 @@
         <v>155336</v>
       </c>
       <c r="U12" s="15" t="n">
-        <v>17502</v>
+        <v>35004</v>
       </c>
       <c r="V12" s="15" t="n">
         <v>0</v>
@@ -1603,7 +1599,7 @@
         <v>188918</v>
       </c>
       <c r="U13" s="15" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="V13" s="15" t="n">
         <v>0</v>
@@ -1683,10 +1679,10 @@
         <v>93085</v>
       </c>
       <c r="U14" s="15" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V14" s="15" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="W14" s="10" t="inlineStr">
         <is>
@@ -1767,10 +1763,10 @@
         <v>238668</v>
       </c>
       <c r="U15" s="15" t="n">
-        <v>24869</v>
+        <v>49786</v>
       </c>
       <c r="V15" s="15" t="n">
-        <v>49834</v>
+        <v>24917</v>
       </c>
       <c r="W15" s="10" t="inlineStr">
         <is>
@@ -1854,7 +1850,7 @@
         <v>9495</v>
       </c>
       <c r="V16" s="15" t="n">
-        <v>18990</v>
+        <v>9495</v>
       </c>
       <c r="W16" s="10" t="inlineStr">
         <is>
@@ -1935,10 +1931,10 @@
         <v>934000</v>
       </c>
       <c r="U17" s="15" t="n">
-        <v>12897</v>
+        <v>0</v>
       </c>
       <c r="V17" s="15" t="n">
-        <v>43918</v>
+        <v>0</v>
       </c>
       <c r="W17" s="10" t="inlineStr">
         <is>
@@ -2019,10 +2015,10 @@
         <v>934000</v>
       </c>
       <c r="U18" s="15" t="n">
-        <v>12897</v>
+        <v>0</v>
       </c>
       <c r="V18" s="15" t="n">
-        <v>43918</v>
+        <v>0</v>
       </c>
       <c r="W18" s="10" t="inlineStr">
         <is>
@@ -2103,10 +2099,10 @@
         <v>934000</v>
       </c>
       <c r="U19" s="15" t="n">
-        <v>12897</v>
+        <v>0</v>
       </c>
       <c r="V19" s="15" t="n">
-        <v>43918</v>
+        <v>0</v>
       </c>
       <c r="W19" s="10" t="inlineStr">
         <is>
@@ -2187,10 +2183,10 @@
         <v>934000</v>
       </c>
       <c r="U20" s="15" t="n">
-        <v>12897</v>
+        <v>0</v>
       </c>
       <c r="V20" s="15" t="n">
-        <v>43918</v>
+        <v>0</v>
       </c>
       <c r="W20" s="10" t="inlineStr">
         <is>
@@ -2271,10 +2267,10 @@
         <v>934000</v>
       </c>
       <c r="U21" s="15" t="n">
-        <v>12897</v>
+        <v>0</v>
       </c>
       <c r="V21" s="15" t="n">
-        <v>43918</v>
+        <v>0</v>
       </c>
       <c r="W21" s="10" t="inlineStr">
         <is>
@@ -2355,10 +2351,10 @@
         <v>934000</v>
       </c>
       <c r="U22" s="15" t="n">
-        <v>12897</v>
+        <v>0</v>
       </c>
       <c r="V22" s="15" t="n">
-        <v>43918</v>
+        <v>0</v>
       </c>
       <c r="W22" s="10" t="inlineStr">
         <is>
@@ -2439,10 +2435,10 @@
         <v>934000</v>
       </c>
       <c r="U23" s="15" t="n">
-        <v>12897</v>
+        <v>0</v>
       </c>
       <c r="V23" s="15" t="n">
-        <v>43918</v>
+        <v>0</v>
       </c>
       <c r="W23" s="10" t="inlineStr">
         <is>
@@ -2523,10 +2519,10 @@
         <v>934000</v>
       </c>
       <c r="U24" s="15" t="n">
-        <v>12897</v>
+        <v>0</v>
       </c>
       <c r="V24" s="15" t="n">
-        <v>43918</v>
+        <v>0</v>
       </c>
       <c r="W24" s="10" t="inlineStr">
         <is>
@@ -2607,10 +2603,10 @@
         <v>934000</v>
       </c>
       <c r="U25" s="15" t="n">
-        <v>12897</v>
+        <v>21959</v>
       </c>
       <c r="V25" s="15" t="n">
-        <v>43918</v>
+        <v>21959</v>
       </c>
       <c r="W25" s="10" t="inlineStr">
         <is>
@@ -2774,7 +2770,7 @@
         <v>6783</v>
       </c>
       <c r="V27" s="15" t="n">
-        <v>15198</v>
+        <v>7599</v>
       </c>
       <c r="W27" s="10" t="inlineStr">
         <is>
@@ -2939,10 +2935,10 @@
         <v>249536</v>
       </c>
       <c r="U29" s="15" t="n">
-        <v>97939</v>
+        <v>148306</v>
       </c>
       <c r="V29" s="15" t="n">
-        <v>296820</v>
+        <v>148410</v>
       </c>
       <c r="W29" s="10" t="inlineStr">
         <is>
@@ -3023,10 +3019,10 @@
         <v>31195</v>
       </c>
       <c r="U30" s="15" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V30" s="15" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="W30" s="10" t="inlineStr">
         <is>
@@ -3107,10 +3103,10 @@
         <v>30305</v>
       </c>
       <c r="U31" s="15" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="V31" s="15" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="W31" s="10" t="inlineStr">
         <is>
@@ -3351,7 +3347,7 @@
         <v>356340</v>
       </c>
       <c r="U34" s="15" t="n">
-        <v>11587</v>
+        <v>23174</v>
       </c>
       <c r="V34" s="15" t="n">
         <v>0</v>
@@ -3431,7 +3427,7 @@
         <v>268570</v>
       </c>
       <c r="U35" s="15" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="V35" s="15" t="n">
         <v>0</v>
@@ -3511,10 +3507,10 @@
         <v>168537</v>
       </c>
       <c r="U36" s="15" t="n">
-        <v>30224</v>
+        <v>60942</v>
       </c>
       <c r="V36" s="15" t="n">
-        <v>61436</v>
+        <v>30718</v>
       </c>
       <c r="W36" s="10" t="inlineStr">
         <is>
@@ -3595,7 +3591,7 @@
         <v>210654</v>
       </c>
       <c r="U37" s="15" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V37" s="15" t="n">
         <v>0</v>
@@ -3758,7 +3754,7 @@
         <v>6209</v>
       </c>
       <c r="V39" s="15" t="n">
-        <v>14170</v>
+        <v>7085</v>
       </c>
       <c r="W39" s="10" t="inlineStr">
         <is>
@@ -3923,10 +3919,10 @@
         <v>49850</v>
       </c>
       <c r="U41" s="15" t="n">
+        <v>13594</v>
+      </c>
+      <c r="V41" s="15" t="n">
         <v>6797</v>
-      </c>
-      <c r="V41" s="15" t="n">
-        <v>13594</v>
       </c>
       <c r="W41" s="10" t="inlineStr">
         <is>
@@ -4087,10 +4083,10 @@
         <v>71362</v>
       </c>
       <c r="U43" s="15" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="V43" s="15" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="W43" s="10" t="inlineStr">
         <is>
@@ -4171,7 +4167,7 @@
         <v>206452</v>
       </c>
       <c r="U44" s="15" t="n">
-        <v>19404</v>
+        <v>38822</v>
       </c>
       <c r="V44" s="15" t="n">
         <v>0</v>
@@ -4251,10 +4247,10 @@
         <v>126425</v>
       </c>
       <c r="U45" s="15" t="n">
-        <v>25229</v>
+        <v>51120</v>
       </c>
       <c r="V45" s="15" t="n">
-        <v>51782</v>
+        <v>25891</v>
       </c>
       <c r="W45" s="10" t="inlineStr">
         <is>
@@ -4335,10 +4331,10 @@
         <v>74276</v>
       </c>
       <c r="U46" s="15" t="n">
-        <v>24462</v>
+        <v>36505</v>
       </c>
       <c r="V46" s="15" t="n">
-        <v>73010</v>
+        <v>36505</v>
       </c>
       <c r="W46" s="10" t="inlineStr">
         <is>
@@ -4419,10 +4415,10 @@
         <v>12076</v>
       </c>
       <c r="U47" s="15" t="n">
-        <v>1007</v>
+        <v>9173</v>
       </c>
       <c r="V47" s="15" t="n">
-        <v>18346</v>
+        <v>9173</v>
       </c>
       <c r="W47" s="10" t="inlineStr">
         <is>
@@ -4503,10 +4499,10 @@
         <v>91580</v>
       </c>
       <c r="U48" s="15" t="n">
-        <v>2110</v>
+        <v>4887</v>
       </c>
       <c r="V48" s="15" t="n">
-        <v>5554</v>
+        <v>2777</v>
       </c>
       <c r="W48" s="10" t="inlineStr">
         <is>
@@ -4587,10 +4583,10 @@
         <v>126425</v>
       </c>
       <c r="U49" s="15" t="n">
-        <v>25229</v>
+        <v>51120</v>
       </c>
       <c r="V49" s="15" t="n">
-        <v>51782</v>
+        <v>25891</v>
       </c>
       <c r="W49" s="10" t="inlineStr">
         <is>
@@ -4671,10 +4667,10 @@
         <v>4991</v>
       </c>
       <c r="U50" s="15" t="n">
-        <v>1289</v>
+        <v>4880</v>
       </c>
       <c r="V50" s="15" t="n">
-        <v>9760</v>
+        <v>4880</v>
       </c>
       <c r="W50" s="10" t="inlineStr">
         <is>
@@ -4755,10 +4751,10 @@
         <v>58001</v>
       </c>
       <c r="U51" s="15" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="V51" s="15" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="W51" s="10" t="inlineStr">
         <is>
@@ -4919,10 +4915,10 @@
         <v>110213</v>
       </c>
       <c r="U53" s="15" t="n">
-        <v>35545</v>
+        <v>89646</v>
       </c>
       <c r="V53" s="15" t="n">
-        <v>179292</v>
+        <v>89646</v>
       </c>
       <c r="W53" s="10" t="inlineStr">
         <is>
@@ -5003,7 +4999,7 @@
         <v>237570</v>
       </c>
       <c r="U54" s="15" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V54" s="15" t="n">
         <v>0</v>
@@ -5090,7 +5086,7 @@
         <v>1957</v>
       </c>
       <c r="V55" s="15" t="n">
-        <v>3914</v>
+        <v>1957</v>
       </c>
       <c r="W55" s="10" t="inlineStr">
         <is>
@@ -5251,7 +5247,7 @@
         <v>200950</v>
       </c>
       <c r="U57" s="15" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="V57" s="15" t="n">
         <v>0</v>
@@ -5411,10 +5407,10 @@
         <v>78428</v>
       </c>
       <c r="U59" s="15" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V59" s="15" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="W59" s="10" t="inlineStr">
         <is>
@@ -5579,10 +5575,10 @@
         <v>31313</v>
       </c>
       <c r="U61" s="15" t="n">
-        <v>11894</v>
+        <v>42341</v>
       </c>
       <c r="V61" s="15" t="n">
-        <v>19264</v>
+        <v>9632</v>
       </c>
       <c r="W61" s="10" t="inlineStr">
         <is>
@@ -5663,10 +5659,10 @@
         <v>157198</v>
       </c>
       <c r="U62" s="15" t="n">
-        <v>44473</v>
+        <v>45852</v>
       </c>
       <c r="V62" s="15" t="n">
-        <v>91704</v>
+        <v>45852</v>
       </c>
       <c r="W62" s="10" t="inlineStr">
         <is>
@@ -5747,21 +5743,17 @@
         <v>531613</v>
       </c>
       <c r="U63" s="15" t="n">
-        <v>5238</v>
+        <v>0</v>
       </c>
       <c r="V63" s="15" t="n">
-        <v>18446</v>
+        <v>0</v>
       </c>
       <c r="W63" s="10" t="inlineStr">
         <is>
           <t>2025_28909028_2517333486.pdf</t>
         </is>
       </c>
-      <c r="X63" s="16" t="inlineStr">
-        <is>
-          <t>⚠️ Diferență mare la reactiv C</t>
-        </is>
-      </c>
+      <c r="X63" s="10" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="10" t="inlineStr">
@@ -5831,10 +5823,10 @@
         <v>531613</v>
       </c>
       <c r="U64" s="15" t="n">
-        <v>5238</v>
+        <v>9223</v>
       </c>
       <c r="V64" s="15" t="n">
-        <v>18446</v>
+        <v>9223</v>
       </c>
       <c r="W64" s="10" t="inlineStr">
         <is>
@@ -5915,10 +5907,10 @@
         <v>59239</v>
       </c>
       <c r="U65" s="15" t="n">
-        <v>18617</v>
+        <v>37597</v>
       </c>
       <c r="V65" s="15" t="n">
-        <v>75194</v>
+        <v>37597</v>
       </c>
       <c r="W65" s="10" t="inlineStr">
         <is>
@@ -5999,10 +5991,10 @@
         <v>39188</v>
       </c>
       <c r="U66" s="15" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="V66" s="15" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="W66" s="10" t="inlineStr">
         <is>
@@ -6083,10 +6075,10 @@
         <v>66345</v>
       </c>
       <c r="U67" s="15" t="n">
-        <v>1938</v>
+        <v>3911</v>
       </c>
       <c r="V67" s="15" t="n">
-        <v>3946</v>
+        <v>1973</v>
       </c>
       <c r="W67" s="10" t="inlineStr">
         <is>
@@ -6167,10 +6159,10 @@
         <v>21459</v>
       </c>
       <c r="U68" s="15" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V68" s="15" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="W68" s="10" t="inlineStr">
         <is>
@@ -6331,10 +6323,10 @@
         <v>156792</v>
       </c>
       <c r="U70" s="15" t="n">
-        <v>32881</v>
+        <v>66337</v>
       </c>
       <c r="V70" s="15" t="n">
-        <v>66912</v>
+        <v>33456</v>
       </c>
       <c r="W70" s="10" t="inlineStr">
         <is>
@@ -6579,10 +6571,10 @@
         <v>9845</v>
       </c>
       <c r="U73" s="15" t="n">
-        <v>2685</v>
+        <v>5993</v>
       </c>
       <c r="V73" s="15" t="n">
-        <v>6616</v>
+        <v>3308</v>
       </c>
       <c r="W73" s="10" t="inlineStr">
         <is>
@@ -6743,10 +6735,10 @@
         <v>115404</v>
       </c>
       <c r="U75" s="15" t="n">
-        <v>5360</v>
+        <v>37564</v>
       </c>
       <c r="V75" s="15" t="n">
-        <v>80078</v>
+        <v>40039</v>
       </c>
       <c r="W75" s="10" t="inlineStr">
         <is>
@@ -6827,10 +6819,10 @@
         <v>69321</v>
       </c>
       <c r="U76" s="15" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="V76" s="15" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="W76" s="10" t="inlineStr">
         <is>
@@ -6914,7 +6906,7 @@
         <v>8025</v>
       </c>
       <c r="V77" s="15" t="n">
-        <v>16584</v>
+        <v>8292</v>
       </c>
       <c r="W77" s="10" t="inlineStr">
         <is>
@@ -6995,10 +6987,10 @@
         <v>245896</v>
       </c>
       <c r="U78" s="15" t="n">
-        <v>53289</v>
+        <v>174674</v>
       </c>
       <c r="V78" s="15" t="n">
-        <v>349348</v>
+        <v>174674</v>
       </c>
       <c r="W78" s="10" t="inlineStr">
         <is>
@@ -7079,10 +7071,10 @@
         <v>216547</v>
       </c>
       <c r="U79" s="15" t="n">
-        <v>79249</v>
+        <v>110750</v>
       </c>
       <c r="V79" s="15" t="n">
-        <v>221500</v>
+        <v>110750</v>
       </c>
       <c r="W79" s="10" t="inlineStr">
         <is>
@@ -7243,10 +7235,10 @@
         <v>136932</v>
       </c>
       <c r="U81" s="15" t="n">
-        <v>42831</v>
+        <v>44967</v>
       </c>
       <c r="V81" s="15" t="n">
-        <v>89936</v>
+        <v>44968</v>
       </c>
       <c r="W81" s="10" t="inlineStr">
         <is>
@@ -7651,7 +7643,7 @@
         <v>167112</v>
       </c>
       <c r="U86" s="15" t="n">
-        <v>19398</v>
+        <v>38952</v>
       </c>
       <c r="V86" s="15" t="n">
         <v>0</v>
@@ -7819,7 +7811,7 @@
         <v>180090</v>
       </c>
       <c r="U88" s="15" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="V88" s="15" t="n">
         <v>0</v>
@@ -7899,10 +7891,10 @@
         <v>52110</v>
       </c>
       <c r="U89" s="15" t="n">
-        <v>2110</v>
+        <v>4720</v>
       </c>
       <c r="V89" s="15" t="n">
-        <v>5220</v>
+        <v>2610</v>
       </c>
       <c r="W89" s="10" t="inlineStr">
         <is>
@@ -7986,7 +7978,7 @@
         <v>69110</v>
       </c>
       <c r="V90" s="15" t="n">
-        <v>138220</v>
+        <v>69110</v>
       </c>
       <c r="W90" s="10" t="inlineStr">
         <is>
@@ -8147,10 +8139,10 @@
         <v>110133</v>
       </c>
       <c r="U92" s="15" t="n">
-        <v>40951</v>
+        <v>60298</v>
       </c>
       <c r="V92" s="15" t="n">
-        <v>120596</v>
+        <v>60298</v>
       </c>
       <c r="W92" s="10" t="inlineStr">
         <is>
@@ -8318,7 +8310,7 @@
         <v>72187</v>
       </c>
       <c r="V94" s="15" t="n">
-        <v>144374</v>
+        <v>72187</v>
       </c>
       <c r="W94" s="10" t="inlineStr">
         <is>
@@ -8399,10 +8391,10 @@
         <v>146619</v>
       </c>
       <c r="U95" s="15" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="V95" s="15" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="W95" s="10" t="inlineStr">
         <is>
@@ -8483,10 +8475,10 @@
         <v>139268</v>
       </c>
       <c r="U96" s="15" t="n">
-        <v>38980</v>
+        <v>41789</v>
       </c>
       <c r="V96" s="15" t="n">
-        <v>83748</v>
+        <v>41874</v>
       </c>
       <c r="W96" s="10" t="inlineStr">
         <is>
@@ -8647,10 +8639,10 @@
         <v>41854</v>
       </c>
       <c r="U98" s="15" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="V98" s="15" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="W98" s="10" t="inlineStr">
         <is>
@@ -8734,7 +8726,7 @@
         <v>10547</v>
       </c>
       <c r="V99" s="15" t="n">
-        <v>21094</v>
+        <v>10547</v>
       </c>
       <c r="W99" s="10" t="inlineStr">
         <is>
@@ -8815,10 +8807,10 @@
         <v>387249</v>
       </c>
       <c r="U100" s="15" t="n">
-        <v>284717</v>
+        <v>302484</v>
       </c>
       <c r="V100" s="15" t="n">
-        <v>620696</v>
+        <v>302850</v>
       </c>
       <c r="W100" s="10" t="inlineStr">
         <is>
@@ -8899,10 +8891,10 @@
         <v>387249</v>
       </c>
       <c r="U101" s="15" t="n">
-        <v>284717</v>
+        <v>7498</v>
       </c>
       <c r="V101" s="15" t="n">
-        <v>620696</v>
+        <v>7498</v>
       </c>
       <c r="W101" s="10" t="inlineStr">
         <is>
@@ -8983,10 +8975,10 @@
         <v>64273</v>
       </c>
       <c r="U102" s="15" t="n">
-        <v>2151</v>
+        <v>4640</v>
       </c>
       <c r="V102" s="15" t="n">
-        <v>4978</v>
+        <v>2489</v>
       </c>
       <c r="W102" s="10" t="inlineStr">
         <is>
@@ -9147,10 +9139,10 @@
         <v>73652</v>
       </c>
       <c r="U104" s="15" t="n">
-        <v>9385</v>
+        <v>33031</v>
       </c>
       <c r="V104" s="15" t="n">
-        <v>364015</v>
+        <v>306935</v>
       </c>
       <c r="W104" s="10" t="inlineStr">
         <is>
@@ -9231,10 +9223,10 @@
         <v>60473</v>
       </c>
       <c r="U105" s="15" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V105" s="15" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="W105" s="10" t="inlineStr">
         <is>
@@ -9395,7 +9387,7 @@
         <v>202410</v>
       </c>
       <c r="U107" s="15" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="V107" s="15" t="n">
         <v>0</v>
@@ -9562,7 +9554,7 @@
         <v>73248</v>
       </c>
       <c r="V109" s="15" t="n">
-        <v>146496</v>
+        <v>73248</v>
       </c>
       <c r="W109" s="10" t="inlineStr">
         <is>
@@ -9727,10 +9719,10 @@
         <v>63671</v>
       </c>
       <c r="U111" s="15" t="n">
-        <v>3716</v>
+        <v>7795</v>
       </c>
       <c r="V111" s="15" t="n">
-        <v>8158</v>
+        <v>4079</v>
       </c>
       <c r="W111" s="10" t="inlineStr">
         <is>
@@ -9811,7 +9803,7 @@
         <v>175720</v>
       </c>
       <c r="U112" s="15" t="n">
-        <v>2910</v>
+        <v>5820</v>
       </c>
       <c r="V112" s="15" t="n">
         <v>0</v>
@@ -9891,7 +9883,7 @@
         <v>178428</v>
       </c>
       <c r="U113" s="15" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V113" s="15" t="n">
         <v>0</v>
@@ -9974,7 +9966,7 @@
         <v>2631</v>
       </c>
       <c r="V114" s="15" t="n">
-        <v>10948</v>
+        <v>5474</v>
       </c>
       <c r="W114" s="10" t="inlineStr">
         <is>
@@ -10139,10 +10131,10 @@
         <v>91580</v>
       </c>
       <c r="U116" s="15" t="n">
-        <v>2110</v>
+        <v>4887</v>
       </c>
       <c r="V116" s="15" t="n">
-        <v>5554</v>
+        <v>2777</v>
       </c>
       <c r="W116" s="10" t="inlineStr">
         <is>
@@ -10223,10 +10215,10 @@
         <v>172286</v>
       </c>
       <c r="U117" s="15" t="n">
-        <v>53376</v>
+        <v>58069</v>
       </c>
       <c r="V117" s="15" t="n">
-        <v>116138</v>
+        <v>58069</v>
       </c>
       <c r="W117" s="10" t="inlineStr">
         <is>
@@ -10310,7 +10302,7 @@
         <v>11456</v>
       </c>
       <c r="V118" s="15" t="n">
-        <v>75611</v>
+        <v>64155</v>
       </c>
       <c r="W118" s="10" t="inlineStr">
         <is>
@@ -10394,7 +10386,7 @@
         <v>13756</v>
       </c>
       <c r="V119" s="15" t="n">
-        <v>27980</v>
+        <v>13990</v>
       </c>
       <c r="W119" s="10" t="inlineStr">
         <is>
@@ -10475,10 +10467,10 @@
         <v>183494</v>
       </c>
       <c r="U120" s="15" t="n">
-        <v>6769</v>
+        <v>13590</v>
       </c>
       <c r="V120" s="15" t="n">
-        <v>13642</v>
+        <v>6821</v>
       </c>
       <c r="W120" s="10" t="inlineStr">
         <is>
@@ -10559,10 +10551,10 @@
         <v>163125</v>
       </c>
       <c r="U121" s="15" t="n">
-        <v>43793</v>
+        <v>47274</v>
       </c>
       <c r="V121" s="15" t="n">
-        <v>94646</v>
+        <v>47323</v>
       </c>
       <c r="W121" s="10" t="inlineStr">
         <is>
@@ -10646,7 +10638,7 @@
         <v>7958</v>
       </c>
       <c r="V122" s="15" t="n">
-        <v>15916</v>
+        <v>7958</v>
       </c>
       <c r="W122" s="10" t="inlineStr">
         <is>
@@ -10730,7 +10722,7 @@
         <v>8452</v>
       </c>
       <c r="V123" s="15" t="n">
-        <v>16904</v>
+        <v>8452</v>
       </c>
       <c r="W123" s="10" t="inlineStr">
         <is>
@@ -10811,10 +10803,10 @@
         <v>296429</v>
       </c>
       <c r="U124" s="15" t="n">
-        <v>126369</v>
+        <v>176616</v>
       </c>
       <c r="V124" s="15" t="n">
-        <v>353786</v>
+        <v>176893</v>
       </c>
       <c r="W124" s="10" t="inlineStr">
         <is>
@@ -10895,7 +10887,7 @@
         <v>75202</v>
       </c>
       <c r="U125" s="15" t="n">
-        <v>27481</v>
+        <v>43210</v>
       </c>
       <c r="V125" s="15" t="n">
         <v>0</v>
@@ -10975,10 +10967,10 @@
         <v>156792</v>
       </c>
       <c r="U126" s="15" t="n">
-        <v>32881</v>
+        <v>66337</v>
       </c>
       <c r="V126" s="15" t="n">
-        <v>66912</v>
+        <v>33456</v>
       </c>
       <c r="W126" s="10" t="inlineStr">
         <is>
@@ -11059,10 +11051,10 @@
         <v>243772</v>
       </c>
       <c r="U127" s="15" t="n">
-        <v>77538</v>
+        <v>104202</v>
       </c>
       <c r="V127" s="15" t="n">
-        <v>208510</v>
+        <v>104255</v>
       </c>
       <c r="W127" s="10" t="inlineStr">
         <is>
@@ -11143,10 +11135,10 @@
         <v>72502</v>
       </c>
       <c r="U128" s="15" t="n">
-        <v>11488</v>
+        <v>12958</v>
       </c>
       <c r="V128" s="15" t="n">
-        <v>25986</v>
+        <v>12993</v>
       </c>
       <c r="W128" s="10" t="inlineStr">
         <is>
@@ -11230,7 +11222,7 @@
         <v>9495</v>
       </c>
       <c r="V129" s="15" t="n">
-        <v>18990</v>
+        <v>9495</v>
       </c>
       <c r="W129" s="10" t="inlineStr">
         <is>
@@ -11314,7 +11306,7 @@
         <v>7714</v>
       </c>
       <c r="V130" s="15" t="n">
-        <v>16594</v>
+        <v>8297</v>
       </c>
       <c r="W130" s="10" t="inlineStr">
         <is>
@@ -11395,10 +11387,10 @@
         <v>107053</v>
       </c>
       <c r="U131" s="15" t="n">
-        <v>32999</v>
+        <v>38519</v>
       </c>
       <c r="V131" s="15" t="n">
-        <v>77716</v>
+        <v>38858</v>
       </c>
       <c r="W131" s="10" t="inlineStr">
         <is>
@@ -11479,10 +11471,10 @@
         <v>23050</v>
       </c>
       <c r="U132" s="15" t="n">
-        <v>2875</v>
+        <v>10781</v>
       </c>
       <c r="V132" s="15" t="n">
-        <v>21688</v>
+        <v>10844</v>
       </c>
       <c r="W132" s="10" t="inlineStr">
         <is>
@@ -11563,10 +11555,10 @@
         <v>13920</v>
       </c>
       <c r="U133" s="15" t="n">
-        <v>1004</v>
+        <v>10636</v>
       </c>
       <c r="V133" s="15" t="n">
-        <v>36967</v>
+        <v>27335</v>
       </c>
       <c r="W133" s="10" t="inlineStr">
         <is>
@@ -11731,10 +11723,10 @@
         <v>214798</v>
       </c>
       <c r="U135" s="15" t="n">
-        <v>1336</v>
+        <v>2431</v>
       </c>
       <c r="V135" s="15" t="n">
-        <v>4862</v>
+        <v>2431</v>
       </c>
       <c r="W135" s="10" t="inlineStr">
         <is>
@@ -11815,7 +11807,7 @@
         <v>75202</v>
       </c>
       <c r="U136" s="15" t="n">
-        <v>27481</v>
+        <v>43210</v>
       </c>
       <c r="V136" s="15" t="n">
         <v>0</v>
@@ -11895,10 +11887,10 @@
         <v>37577</v>
       </c>
       <c r="U137" s="15" t="n">
-        <v>10677</v>
+        <v>20737</v>
       </c>
       <c r="V137" s="15" t="n">
-        <v>41474</v>
+        <v>20737</v>
       </c>
       <c r="W137" s="10" t="inlineStr">
         <is>
@@ -11982,7 +11974,7 @@
         <v>9720</v>
       </c>
       <c r="V138" s="15" t="n">
-        <v>19440</v>
+        <v>9720</v>
       </c>
       <c r="W138" s="10" t="inlineStr">
         <is>
@@ -12066,7 +12058,7 @@
         <v>71460</v>
       </c>
       <c r="V139" s="15" t="n">
-        <v>142920</v>
+        <v>71460</v>
       </c>
       <c r="W139" s="10" t="inlineStr">
         <is>
@@ -12147,10 +12139,10 @@
         <v>158993</v>
       </c>
       <c r="U140" s="15" t="n">
-        <v>40929</v>
+        <v>46881</v>
       </c>
       <c r="V140" s="15" t="n">
-        <v>93768</v>
+        <v>46884</v>
       </c>
       <c r="W140" s="10" t="inlineStr">
         <is>
@@ -12234,7 +12226,7 @@
         <v>11894</v>
       </c>
       <c r="V141" s="15" t="n">
-        <v>24290</v>
+        <v>12145</v>
       </c>
       <c r="W141" s="10" t="inlineStr">
         <is>
@@ -12318,7 +12310,7 @@
         <v>9720</v>
       </c>
       <c r="V142" s="15" t="n">
-        <v>19440</v>
+        <v>9720</v>
       </c>
       <c r="W142" s="10" t="inlineStr">
         <is>
